--- a/results/I3_N5_M2_T30_C150_DepCentral_s1_P4_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepCentral_s1_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1388.945707053232</v>
+        <v>1333.400726831333</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28.19570705323225</v>
+        <v>22.6154668145174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.695361957914272</v>
+        <v>9.935004806263807</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.695361957914272</v>
+        <v>4.720264823079315</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>943.6199999999997</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>417.13</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16.30463804208573</v>
+        <v>26.30463804208573</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.788310969284332</v>
+        <v>11.60181147454999</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.14572751044755</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>22.48909622152298</v>
+        <v>22.55409141525918</v>
       </c>
     </row>
     <row r="7">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.23104729676617</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1046,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1060,12 +1060,152 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>225.3849999999991</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
@@ -1179,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>213.6799999999991</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9">
@@ -1190,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>214.4099999999991</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
@@ -1201,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>215.75</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11">
@@ -1212,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>218.3649999999991</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12">
@@ -1223,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>40.77499999999971</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -1234,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>34.87999999999971</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -1245,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>37.77499999999971</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -1256,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>41.01499999999971</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -1267,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>41.88499999999971</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1278,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>103.6649999999988</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -1289,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>96.43999999999883</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -1300,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>91.94499999999883</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
@@ -1311,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>97.30499999999884</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.0549999999988</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22">
@@ -1333,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>177.6150000000009</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
@@ -1344,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>171.8100000000008</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
@@ -1355,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>178.4650000000008</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25">
@@ -1366,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>177.2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -1377,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>179.1300000000009</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
@@ -1388,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.7250000000004</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28">
@@ -1399,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>96.12000000000037</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29">
@@ -1410,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>98.26500000000037</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30">
@@ -1421,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>96.94500000000036</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
@@ -1432,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>103.5650000000004</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
@@ -1443,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>177.6150000000009</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
@@ -1454,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>171.8100000000008</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>178.4650000000008</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>177.2</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
@@ -1487,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.1300000000009</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37">
@@ -1498,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>225.3849999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1509,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>213.6799999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1520,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>214.4099999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1531,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>215.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1542,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>218.3649999999991</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>27.61500000000089</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
@@ -1600,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>21.81000000000083</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
@@ -1611,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>28.46500000000083</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>27.2</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>29.13000000000088</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
@@ -1644,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>75.38499999999911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1655,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>63.67999999999913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1666,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>64.40999999999912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1677,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>65.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1688,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>68.36499999999913</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1746,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>10.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1757,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1768,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1779,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1801,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>10.345</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1812,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.875</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1823,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.51</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1834,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>7.380000000000001</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1845,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>22.18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1856,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>26.98</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1867,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>20.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>26.68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1889,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>22.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2013,7 +2153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2148,6 +2288,61 @@
         <v>1</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
